--- a/数据分析/被删除的节点.xlsx
+++ b/数据分析/被删除的节点.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:D122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,603 +446,449 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>货量</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>count</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>2332</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC43</t>
+          <t>DC1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC45</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>44206</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F2" t="n">
+          <t>DC8</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4155</v>
+        <v>11</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC7</t>
+          <t>DC10</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC34</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>44214</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" t="n">
+          <t>DC27</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4624</v>
+        <v>23</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC58</t>
+          <t>DC10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC29</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>44215</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
+          <t>DC47</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4660</v>
+        <v>25</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC9</t>
+          <t>DC10</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC22</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>44216</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" t="n">
+          <t>DC51</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5207</v>
+        <v>26</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC14</t>
+          <t>DC10</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC67</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>44218</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="n">
+          <t>DC59</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5718</v>
+        <v>27</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC12</t>
+          <t>DC10</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC67</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>44220</v>
-      </c>
-      <c r="E7" t="n">
-        <v>9</v>
-      </c>
-      <c r="F7" t="n">
+          <t>DC60</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>5793</v>
+        <v>38</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC29</t>
+          <t>DC10</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC9</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>44220</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
+          <t>DC80</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>6855</v>
+        <v>42</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC29</t>
+          <t>DC11</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC36</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>44224</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
+          <t>DC22</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>7551</v>
+        <v>48</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DC9</t>
+          <t>DC12</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC58</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>44227</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
+          <t>DC23</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>8055</v>
+        <v>52</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DC7</t>
+          <t>DC12</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC40</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>44229</v>
-      </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" t="n">
+          <t>DC36</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>8429</v>
+        <v>53</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DC30</t>
+          <t>DC12</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC67</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>44230</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" t="n">
+          <t>DC38</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>8601</v>
+        <v>56</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DC9</t>
+          <t>DC12</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC51</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>44231</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" t="n">
+          <t>DC67</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>9057</v>
+        <v>60</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DC47</t>
+          <t>DC13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC81</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>44232</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4412</v>
-      </c>
-      <c r="F14" t="n">
+          <t>DC15</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>9632</v>
+        <v>68</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DC3</t>
+          <t>DC14</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DC28</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>44235</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" t="n">
+          <t>DC11</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>12742</v>
+        <v>88</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DC5</t>
+          <t>DC14</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DC32</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>44249</v>
-      </c>
-      <c r="E16" t="n">
-        <v>29</v>
-      </c>
-      <c r="F16" t="n">
+          <t>DC43</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>15100</v>
+        <v>90</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DC3</t>
+          <t>DC14</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DC19</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>44259</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" t="n">
+          <t>DC61</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>15117</v>
+        <v>94</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DC9</t>
+          <t>DC14</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DC79</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>44259</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" t="n">
+          <t>DC67</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>16868</v>
+        <v>96</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DC32</t>
+          <t>DC14</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DC12</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>44266</v>
-      </c>
-      <c r="E19" t="n">
-        <v>11</v>
-      </c>
-      <c r="F19" t="n">
+          <t>DC76</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>17236</v>
+        <v>97</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DC7</t>
+          <t>DC14</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DC12</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>44268</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4</v>
-      </c>
-      <c r="F20" t="n">
+          <t>DC78</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19534</v>
+        <v>125</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DC9</t>
+          <t>DC16</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC23</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>44278</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F21" t="n">
+          <t>DC62</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>19768</v>
+        <v>131</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DC5</t>
+          <t>DC17</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC15</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>44279</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F22" t="n">
+          <t>DC20</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>24668</v>
+        <v>140</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DC58</t>
+          <t>DC17</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC34</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>44299</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
+          <t>DC61</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>26147</v>
+        <v>143</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DC12</t>
+          <t>DC17</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC23</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>44306</v>
-      </c>
-      <c r="E24" t="n">
-        <v>11</v>
-      </c>
-      <c r="F24" t="n">
+          <t>DC65</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>31057</v>
+        <v>150</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DC22</t>
+          <t>DC18</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC21</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>44326</v>
-      </c>
-      <c r="E25" t="n">
-        <v>3</v>
-      </c>
-      <c r="F25" t="n">
+          <t>DC23</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>31599</v>
+        <v>162</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DC35</t>
+          <t>DC19</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1054,211 +896,157 @@
           <t>DC36</t>
         </is>
       </c>
-      <c r="D26" s="2" t="n">
-        <v>44328</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="D26" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>34871</v>
+        <v>186</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DC9</t>
+          <t>DC20</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC21</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>44342</v>
-      </c>
-      <c r="E27" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" t="n">
+          <t>DC33</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>35478</v>
+        <v>194</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DC35</t>
+          <t>DC20</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC23</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>44344</v>
-      </c>
-      <c r="E28" t="n">
-        <v>109</v>
-      </c>
-      <c r="F28" t="n">
+          <t>DC65</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>36562</v>
+        <v>214</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DC3</t>
+          <t>DC21</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC30</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>44349</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="n">
+          <t>DC76</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>36823</v>
+        <v>220</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DC3</t>
+          <t>DC22</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DC38</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>44350</v>
-      </c>
-      <c r="E30" t="n">
-        <v>11</v>
-      </c>
-      <c r="F30" t="n">
+          <t>DC13</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>38372</v>
+        <v>222</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DC12</t>
+          <t>DC22</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DC36</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>44356</v>
-      </c>
-      <c r="E31" t="n">
-        <v>35</v>
-      </c>
-      <c r="F31" t="n">
+          <t>DC20</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>38605</v>
+        <v>223</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DC5</t>
+          <t>DC22</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DC19</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>44357</v>
-      </c>
-      <c r="E32" t="n">
-        <v>2</v>
-      </c>
-      <c r="F32" t="n">
+          <t>DC21</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>39888</v>
+        <v>235</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DC9</t>
+          <t>DC22</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DC48</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>44362</v>
-      </c>
-      <c r="E33" t="n">
-        <v>7</v>
-      </c>
-      <c r="F33" t="n">
+          <t>DC76</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>39907</v>
+        <v>243</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DC14</t>
+          <t>DC23</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DC11</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>44362</v>
-      </c>
-      <c r="E34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" t="n">
+          <t>DC20</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>40210</v>
+        <v>249</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1270,1127 +1058,845 @@
           <t>DC36</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n">
-        <v>44363</v>
-      </c>
-      <c r="E35" t="n">
-        <v>2</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="D35" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>43905</v>
+        <v>253</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DC12</t>
+          <t>DC23</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DC38</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>44378</v>
-      </c>
-      <c r="E36" t="n">
-        <v>9</v>
-      </c>
-      <c r="F36" t="n">
+          <t>DC6</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44871</v>
+        <v>274</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DC11</t>
+          <t>DC25</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DC22</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>44382</v>
-      </c>
-      <c r="E37" t="n">
-        <v>2</v>
-      </c>
-      <c r="F37" t="n">
+          <t>DC33</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>52756</v>
+        <v>284</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DC13</t>
+          <t>DC25</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DC15</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>44411</v>
-      </c>
-      <c r="E38" t="n">
-        <v>2</v>
-      </c>
-      <c r="F38" t="n">
+          <t>DC76</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>54562</v>
+        <v>293</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DC22</t>
+          <t>DC26</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DC13</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>44417</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" t="n">
+          <t>DC34</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>55038</v>
+        <v>319</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DC56</t>
+          <t>DC27</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DC61</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>44418</v>
-      </c>
-      <c r="E40" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" t="n">
+          <t>DC9</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>55085</v>
+        <v>323</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DC5</t>
+          <t>DC28</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DC61</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>44419</v>
-      </c>
-      <c r="E41" t="n">
-        <v>3</v>
-      </c>
-      <c r="F41" t="n">
+          <t>DC20</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>55119</v>
+        <v>324</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DC14</t>
+          <t>DC28</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DC61</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>44419</v>
-      </c>
-      <c r="E42" t="n">
-        <v>10</v>
-      </c>
-      <c r="F42" t="n">
+          <t>DC23</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>55139</v>
+        <v>339</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DC17</t>
+          <t>DC29</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DC61</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>44419</v>
-      </c>
-      <c r="E43" t="n">
-        <v>2</v>
-      </c>
-      <c r="F43" t="n">
+          <t>DC36</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>55292</v>
+        <v>340</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DC46</t>
+          <t>DC29</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DC13</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>44419</v>
-      </c>
-      <c r="E44" t="n">
-        <v>3</v>
-      </c>
-      <c r="F44" t="n">
+          <t>DC9</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>55650</v>
+        <v>344</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DC61</t>
+          <t>DC3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DC4</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>44420</v>
-      </c>
-      <c r="E45" t="n">
-        <v>3</v>
-      </c>
-      <c r="F45" t="n">
+          <t>DC19</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>62477</v>
+        <v>348</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DC4</t>
+          <t>DC3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DC40</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>44445</v>
-      </c>
-      <c r="E46" t="n">
-        <v>2</v>
-      </c>
-      <c r="F46" t="n">
+          <t>DC28</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>67895</v>
+        <v>349</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DC26</t>
+          <t>DC3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DC34</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>44465</v>
-      </c>
-      <c r="E47" t="n">
-        <v>2</v>
-      </c>
-      <c r="F47" t="n">
+          <t>DC30</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>67923</v>
+        <v>352</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DC34</t>
+          <t>DC3</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DC30</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>44465</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" t="n">
+          <t>DC38</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>72814</v>
+        <v>361</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DC75</t>
+          <t>DC30</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DC35</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>44484</v>
-      </c>
-      <c r="E49" t="n">
-        <v>2</v>
-      </c>
-      <c r="F49" t="n">
+          <t>DC23</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>74230</v>
+        <v>372</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DC20</t>
+          <t>DC30</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DC33</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>44491</v>
-      </c>
-      <c r="E50" t="n">
-        <v>4</v>
-      </c>
-      <c r="F50" t="n">
+          <t>DC67</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>77162</v>
+        <v>382</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DC25</t>
+          <t>DC31</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DC33</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>44504</v>
-      </c>
-      <c r="E51" t="n">
-        <v>2</v>
-      </c>
-      <c r="F51" t="n">
+          <t>DC34</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>77347</v>
+        <v>392</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DC17</t>
+          <t>DC31</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DC20</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>44505</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" t="n">
+          <t>DC76</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>77600</v>
+        <v>395</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DC22</t>
+          <t>DC32</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DC20</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>44506</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2</v>
-      </c>
-      <c r="F53" t="n">
+          <t>DC10</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>77654</v>
+        <v>396</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DC36</t>
+          <t>DC32</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DC20</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>44506</v>
-      </c>
-      <c r="E54" t="n">
-        <v>7</v>
-      </c>
-      <c r="F54" t="n">
+          <t>DC12</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>77744</v>
+        <v>397</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DC73</t>
+          <t>DC32</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>DC20</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>44506</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4</v>
-      </c>
-      <c r="F55" t="n">
+          <t>DC14</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>77827</v>
+        <v>407</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DC23</t>
+          <t>DC33</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DC20</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="n">
-        <v>44507</v>
-      </c>
-      <c r="E56" t="n">
-        <v>1</v>
-      </c>
-      <c r="F56" t="n">
+          <t>DC65</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>77848</v>
+        <v>414</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DC28</t>
+          <t>DC34</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DC20</t>
-        </is>
-      </c>
-      <c r="D57" s="2" t="n">
-        <v>44507</v>
-      </c>
-      <c r="E57" t="n">
-        <v>2</v>
-      </c>
-      <c r="F57" t="n">
+          <t>DC30</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>78778</v>
+        <v>429</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DC16</t>
+          <t>DC35</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DC62</t>
-        </is>
-      </c>
-      <c r="D58" s="2" t="n">
-        <v>44511</v>
-      </c>
-      <c r="E58" t="n">
-        <v>2</v>
-      </c>
-      <c r="F58" t="n">
+          <t>DC17</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>80467</v>
+        <v>430</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DC39</t>
+          <t>DC35</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>DC14</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="n">
-        <v>44518</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3</v>
-      </c>
-      <c r="F59" t="n">
+          <t>DC23</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>80759</v>
+        <v>434</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DC8</t>
+          <t>DC35</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>DC38</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="n">
-        <v>44520</v>
-      </c>
-      <c r="E60" t="n">
-        <v>1</v>
-      </c>
-      <c r="F60" t="n">
+          <t>DC34</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>84478</v>
+        <v>435</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DC77</t>
+          <t>DC35</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DC6</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="n">
-        <v>44538</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2</v>
-      </c>
-      <c r="F61" t="n">
+          <t>DC36</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>85375</v>
+        <v>447</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DC40</t>
+          <t>DC36</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DC21</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="n">
-        <v>44543</v>
-      </c>
-      <c r="E62" t="n">
-        <v>68</v>
-      </c>
-      <c r="F62" t="n">
+          <t>DC20</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>87759</v>
+        <v>448</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DC57</t>
+          <t>DC36</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DC4</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="n">
-        <v>44555</v>
-      </c>
-      <c r="E63" t="n">
-        <v>6</v>
-      </c>
-      <c r="F63" t="n">
+          <t>DC23</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>88261</v>
+        <v>471</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DC38</t>
+          <t>DC37</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>DC22</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="n">
-        <v>44558</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1</v>
-      </c>
-      <c r="F64" t="n">
+          <t>DC62</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>88518</v>
+        <v>477</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DC54</t>
+          <t>DC38</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>DC23</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="n">
-        <v>44559</v>
-      </c>
-      <c r="E65" t="n">
-        <v>53</v>
-      </c>
-      <c r="F65" t="n">
+          <t>DC22</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>93156</v>
+        <v>493</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DC21</t>
+          <t>DC39</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DC76</t>
-        </is>
-      </c>
-      <c r="D66" s="2" t="n">
-        <v>44581</v>
-      </c>
-      <c r="E66" t="n">
-        <v>13</v>
-      </c>
-      <c r="F66" t="n">
+          <t>DC14</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>93164</v>
+        <v>512</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DC22</t>
+          <t>DC4</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>DC76</t>
-        </is>
-      </c>
-      <c r="D67" s="2" t="n">
-        <v>44581</v>
-      </c>
-      <c r="E67" t="n">
-        <v>9</v>
-      </c>
-      <c r="F67" t="n">
+          <t>DC40</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>93576</v>
+        <v>515</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DC8</t>
+          <t>DC4</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>DC44</t>
-        </is>
-      </c>
-      <c r="D68" s="2" t="n">
-        <v>44583</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3</v>
-      </c>
-      <c r="F68" t="n">
+          <t>DC64</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>94466</v>
+        <v>516</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DC62</t>
+          <t>DC4</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>DC50</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="n">
-        <v>44586</v>
-      </c>
-      <c r="E69" t="n">
-        <v>2</v>
-      </c>
-      <c r="F69" t="n">
+          <t>DC65</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>97530</v>
+        <v>523</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DC48</t>
+          <t>DC40</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>DC34</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="n">
-        <v>44601</v>
-      </c>
-      <c r="E70" t="n">
-        <v>3</v>
-      </c>
-      <c r="F70" t="n">
+          <t>DC21</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>97820</v>
+        <v>526</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DC14</t>
+          <t>DC40</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>DC78</t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="n">
-        <v>44603</v>
-      </c>
-      <c r="E71" t="n">
-        <v>4</v>
-      </c>
-      <c r="F71" t="n">
+          <t>DC30</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>100759</v>
+        <v>528</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DC32</t>
+          <t>DC40</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>DC14</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="n">
-        <v>44616</v>
-      </c>
-      <c r="E72" t="n">
-        <v>13</v>
-      </c>
-      <c r="F72" t="n">
+          <t>DC34</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>114068</v>
+        <v>552</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DC46</t>
+          <t>DC42</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>DC52</t>
-        </is>
-      </c>
-      <c r="D73" s="2" t="n">
-        <v>44677</v>
-      </c>
-      <c r="E73" t="n">
-        <v>49</v>
-      </c>
-      <c r="F73" t="n">
+          <t>DC32</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>114631</v>
+        <v>573</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DC18</t>
+          <t>DC43</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>DC23</t>
-        </is>
-      </c>
-      <c r="D74" s="2" t="n">
-        <v>44680</v>
-      </c>
-      <c r="E74" t="n">
-        <v>4</v>
-      </c>
-      <c r="F74" t="n">
+          <t>DC45</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>114782</v>
+        <v>612</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DC50</t>
+          <t>DC46</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>DC48</t>
-        </is>
-      </c>
-      <c r="D75" s="2" t="n">
-        <v>44680</v>
-      </c>
-      <c r="E75" t="n">
-        <v>60</v>
-      </c>
-      <c r="F75" t="n">
+          <t>DC13</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>115165</v>
+        <v>622</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DC30</t>
+          <t>DC46</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>DC23</t>
-        </is>
-      </c>
-      <c r="D76" s="2" t="n">
-        <v>44682</v>
-      </c>
-      <c r="E76" t="n">
-        <v>6</v>
-      </c>
-      <c r="F76" t="n">
+          <t>DC52</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>116363</v>
+        <v>645</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DC62</t>
+          <t>DC47</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>DC38</t>
-        </is>
-      </c>
-      <c r="D77" s="2" t="n">
-        <v>44687</v>
-      </c>
-      <c r="E77" t="n">
-        <v>4</v>
-      </c>
-      <c r="F77" t="n">
+          <t>DC81</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>120335</v>
+        <v>653</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DC42</t>
+          <t>DC48</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>DC32</t>
-        </is>
-      </c>
-      <c r="D78" s="2" t="n">
-        <v>44705</v>
-      </c>
-      <c r="E78" t="n">
-        <v>120</v>
-      </c>
-      <c r="F78" t="n">
+          <t>DC34</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>121691</v>
+        <v>675</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DC62</t>
+          <t>DC5</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>DC21</t>
-        </is>
-      </c>
-      <c r="D79" s="2" t="n">
-        <v>44710</v>
-      </c>
-      <c r="E79" t="n">
-        <v>3</v>
-      </c>
-      <c r="F79" t="n">
+          <t>DC15</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>122156</v>
+        <v>676</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DC35</t>
+          <t>DC5</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>DC17</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>44712</v>
-      </c>
-      <c r="E80" t="n">
-        <v>74</v>
-      </c>
-      <c r="F80" t="n">
+          <t>DC19</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>123051</v>
+        <v>677</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DC37</t>
+          <t>DC5</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>DC62</t>
-        </is>
-      </c>
-      <c r="D81" s="2" t="n">
-        <v>44715</v>
-      </c>
-      <c r="E81" t="n">
-        <v>4</v>
-      </c>
-      <c r="F81" t="n">
+          <t>DC20</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>124721</v>
+        <v>684</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DC50</t>
+          <t>DC5</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2398,143 +1904,107 @@
           <t>DC32</t>
         </is>
       </c>
-      <c r="D82" s="2" t="n">
-        <v>44721</v>
-      </c>
-      <c r="E82" t="n">
-        <v>22</v>
-      </c>
-      <c r="F82" t="n">
+      <c r="D82" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>124729</v>
+        <v>689</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>DC5</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
           <t>DC51</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>DC32</t>
-        </is>
-      </c>
-      <c r="D83" s="2" t="n">
-        <v>44721</v>
-      </c>
-      <c r="E83" t="n">
-        <v>344</v>
-      </c>
-      <c r="F83" t="n">
+      <c r="D83" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>124939</v>
+        <v>690</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DC40</t>
+          <t>DC5</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>DC30</t>
-        </is>
-      </c>
-      <c r="D84" s="2" t="n">
-        <v>44722</v>
-      </c>
-      <c r="E84" t="n">
-        <v>7</v>
-      </c>
-      <c r="F84" t="n">
+          <t>DC61</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>126879</v>
+        <v>700</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DC19</t>
+          <t>DC50</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>DC36</t>
-        </is>
-      </c>
-      <c r="D85" s="2" t="n">
-        <v>44730</v>
-      </c>
-      <c r="E85" t="n">
-        <v>3</v>
-      </c>
-      <c r="F85" t="n">
+          <t>DC32</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>137254</v>
+        <v>705</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DC23</t>
+          <t>DC50</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>DC6</t>
-        </is>
-      </c>
-      <c r="D86" s="2" t="n">
-        <v>44775</v>
-      </c>
-      <c r="E86" t="n">
-        <v>8</v>
-      </c>
-      <c r="F86" t="n">
+          <t>DC48</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>137425</v>
+        <v>718</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DC6</t>
+          <t>DC51</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>DC70</t>
-        </is>
-      </c>
-      <c r="D87" s="2" t="n">
-        <v>44776</v>
-      </c>
-      <c r="E87" t="n">
-        <v>2</v>
-      </c>
-      <c r="F87" t="n">
+          <t>DC32</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>137509</v>
+        <v>758</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DC28</t>
+          <t>DC54</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2542,19 +2012,13 @@
           <t>DC23</t>
         </is>
       </c>
-      <c r="D88" s="2" t="n">
-        <v>44776</v>
-      </c>
-      <c r="E88" t="n">
-        <v>5</v>
-      </c>
-      <c r="F88" t="n">
+      <c r="D88" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>140738</v>
+        <v>759</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2566,499 +2030,373 @@
           <t>DC37</t>
         </is>
       </c>
-      <c r="D89" s="2" t="n">
-        <v>44790</v>
-      </c>
-      <c r="E89" t="n">
-        <v>32</v>
-      </c>
-      <c r="F89" t="n">
+      <c r="D89" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>145678</v>
+        <v>779</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DC36</t>
+          <t>DC56</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>DC23</t>
-        </is>
-      </c>
-      <c r="D90" s="2" t="n">
-        <v>44812</v>
-      </c>
-      <c r="E90" t="n">
-        <v>2</v>
-      </c>
-      <c r="F90" t="n">
+          <t>DC61</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>147558</v>
+        <v>788</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DC40</t>
+          <t>DC57</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>DC34</t>
-        </is>
-      </c>
-      <c r="D91" s="2" t="n">
-        <v>44820</v>
-      </c>
-      <c r="E91" t="n">
-        <v>2</v>
-      </c>
-      <c r="F91" t="n">
+          <t>DC4</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>149867</v>
+        <v>797</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DC35</t>
+          <t>DC58</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DC34</t>
-        </is>
-      </c>
-      <c r="D92" s="2" t="n">
-        <v>44830</v>
-      </c>
-      <c r="E92" t="n">
-        <v>3</v>
-      </c>
-      <c r="F92" t="n">
+          <t>DC29</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>152469</v>
+        <v>799</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DC1</t>
+          <t>DC58</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DC8</t>
-        </is>
-      </c>
-      <c r="D93" s="2" t="n">
-        <v>44842</v>
-      </c>
-      <c r="E93" t="n">
-        <v>3</v>
-      </c>
-      <c r="F93" t="n">
+          <t>DC34</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>152498</v>
+        <v>825</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DC14</t>
+          <t>DC6</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>DC43</t>
-        </is>
-      </c>
-      <c r="D94" s="2" t="n">
-        <v>44842</v>
-      </c>
-      <c r="E94" t="n">
-        <v>4</v>
-      </c>
-      <c r="F94" t="n">
+          <t>DC70</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>154464</v>
+        <v>841</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DC8</t>
+          <t>DC61</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>DC43</t>
-        </is>
-      </c>
-      <c r="D95" s="2" t="n">
-        <v>44850</v>
-      </c>
-      <c r="E95" t="n">
-        <v>3</v>
-      </c>
-      <c r="F95" t="n">
+          <t>DC4</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>157614</v>
+        <v>845</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DC25</t>
+          <t>DC62</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>DC76</t>
-        </is>
-      </c>
-      <c r="D96" s="2" t="n">
-        <v>44862</v>
-      </c>
-      <c r="E96" t="n">
-        <v>5</v>
-      </c>
-      <c r="F96" t="n">
+          <t>DC15</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>158095</v>
+        <v>848</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DC14</t>
+          <t>DC62</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>DC76</t>
-        </is>
-      </c>
-      <c r="D97" s="2" t="n">
-        <v>44864</v>
-      </c>
-      <c r="E97" t="n">
-        <v>2</v>
-      </c>
-      <c r="F97" t="n">
+          <t>DC21</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>158798</v>
+        <v>857</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DC31</t>
+          <t>DC62</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>DC34</t>
-        </is>
-      </c>
-      <c r="D98" s="2" t="n">
-        <v>44866</v>
-      </c>
-      <c r="E98" t="n">
-        <v>2</v>
-      </c>
-      <c r="F98" t="n">
+          <t>DC38</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>159661</v>
+        <v>861</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DC8</t>
+          <t>DC62</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>DC25</t>
-        </is>
-      </c>
-      <c r="D99" s="2" t="n">
-        <v>44869</v>
-      </c>
-      <c r="E99" t="n">
-        <v>3</v>
-      </c>
-      <c r="F99" t="n">
+          <t>DC50</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>161538</v>
+        <v>866</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DC10</t>
+          <t>DC62</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>DC80</t>
-        </is>
-      </c>
-      <c r="D100" s="2" t="n">
-        <v>44875</v>
-      </c>
-      <c r="E100" t="n">
-        <v>1</v>
-      </c>
-      <c r="F100" t="n">
+          <t>DC76</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>162163</v>
+        <v>874</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DC4</t>
+          <t>DC64</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>DC65</t>
-        </is>
-      </c>
-      <c r="D101" s="2" t="n">
-        <v>44877</v>
-      </c>
-      <c r="E101" t="n">
-        <v>1</v>
-      </c>
-      <c r="F101" t="n">
+          <t>DC30</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>162313</v>
+        <v>882</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DC31</t>
+          <t>DC65</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>DC76</t>
-        </is>
-      </c>
-      <c r="D102" s="2" t="n">
-        <v>44877</v>
-      </c>
-      <c r="E102" t="n">
-        <v>4</v>
-      </c>
-      <c r="F102" t="n">
+          <t>DC43</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>164944</v>
+        <v>917</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DC64</t>
+          <t>DC69</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>DC30</t>
-        </is>
-      </c>
-      <c r="D103" s="2" t="n">
-        <v>44885</v>
-      </c>
-      <c r="E103" t="n">
-        <v>19</v>
-      </c>
-      <c r="F103" t="n">
+          <t>DC3</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>167656</v>
+        <v>923</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DC5</t>
+          <t>DC7</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>DC51</t>
-        </is>
-      </c>
-      <c r="D104" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="E104" t="n">
-        <v>1</v>
-      </c>
-      <c r="F104" t="n">
+          <t>DC12</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>167682</v>
+        <v>926</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DC10</t>
+          <t>DC7</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>DC27</t>
-        </is>
-      </c>
-      <c r="D105" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="E105" t="n">
-        <v>6</v>
-      </c>
-      <c r="F105" t="n">
+          <t>DC34</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>167685</v>
+        <v>929</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>DC10</t>
+          <t>DC7</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>DC47</t>
-        </is>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="E106" t="n">
-        <v>2</v>
-      </c>
-      <c r="F106" t="n">
+          <t>DC40</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>167686</v>
+        <v>940</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>DC10</t>
+          <t>DC70</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>DC51</t>
-        </is>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="E107" t="n">
-        <v>1</v>
-      </c>
-      <c r="F107" t="n">
+          <t>DC34</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>167687</v>
+        <v>972</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>DC10</t>
+          <t>DC73</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>DC60</t>
-        </is>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="E108" t="n">
-        <v>59</v>
-      </c>
-      <c r="F108" t="n">
+          <t>DC20</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>167922</v>
+        <v>991</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>DC62</t>
+          <t>DC75</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>DC15</t>
-        </is>
-      </c>
-      <c r="D109" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="E109" t="n">
-        <v>2</v>
-      </c>
-      <c r="F109" t="n">
+          <t>DC35</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>167946</v>
+        <v>998</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -3070,301 +2408,223 @@
           <t>DC8</t>
         </is>
       </c>
-      <c r="D110" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="E110" t="n">
-        <v>4</v>
-      </c>
-      <c r="F110" t="n">
+      <c r="D110" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>168212</v>
+        <v>999</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DC70</t>
+          <t>DC77</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>DC34</t>
-        </is>
-      </c>
-      <c r="D111" s="2" t="n">
-        <v>44897</v>
-      </c>
-      <c r="E111" t="n">
-        <v>2</v>
-      </c>
-      <c r="F111" t="n">
+          <t>DC6</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>168943</v>
+        <v>1004</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DC27</t>
+          <t>DC8</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>DC9</t>
-        </is>
-      </c>
-      <c r="D112" s="2" t="n">
-        <v>44900</v>
-      </c>
-      <c r="E112" t="n">
-        <v>3</v>
-      </c>
-      <c r="F112" t="n">
+          <t>DC25</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>169792</v>
+        <v>1011</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DC62</t>
+          <t>DC8</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>DC76</t>
-        </is>
-      </c>
-      <c r="D113" s="2" t="n">
-        <v>44902</v>
-      </c>
-      <c r="E113" t="n">
-        <v>3</v>
-      </c>
-      <c r="F113" t="n">
+          <t>DC38</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>170498</v>
+        <v>1014</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>DC5</t>
+          <t>DC8</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>DC20</t>
-        </is>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>44905</v>
-      </c>
-      <c r="E114" t="n">
-        <v>4</v>
-      </c>
-      <c r="F114" t="n">
+          <t>DC43</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>170905</v>
+        <v>1015</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>DC17</t>
+          <t>DC8</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>DC65</t>
-        </is>
-      </c>
-      <c r="D115" s="2" t="n">
-        <v>44906</v>
-      </c>
-      <c r="E115" t="n">
-        <v>2</v>
-      </c>
-      <c r="F115" t="n">
+          <t>DC44</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>171261</v>
+        <v>1030</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>DC20</t>
+          <t>DC9</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>DC65</t>
-        </is>
-      </c>
-      <c r="D116" s="2" t="n">
-        <v>44907</v>
-      </c>
-      <c r="E116" t="n">
-        <v>2</v>
-      </c>
-      <c r="F116" t="n">
+          <t>DC21</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>171557</v>
+        <v>1031</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>DC4</t>
+          <t>DC9</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>DC64</t>
-        </is>
-      </c>
-      <c r="D117" s="2" t="n">
-        <v>44908</v>
-      </c>
-      <c r="E117" t="n">
-        <v>13</v>
-      </c>
-      <c r="F117" t="n">
+          <t>DC22</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>171718</v>
+        <v>1032</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DC33</t>
+          <t>DC9</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>DC65</t>
-        </is>
-      </c>
-      <c r="D118" s="2" t="n">
-        <v>44908</v>
-      </c>
-      <c r="E118" t="n">
-        <v>1</v>
-      </c>
-      <c r="F118" t="n">
+          <t>DC23</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>172254</v>
+        <v>1041</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>DC65</t>
+          <t>DC9</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>DC43</t>
-        </is>
-      </c>
-      <c r="D119" s="2" t="n">
-        <v>44909</v>
-      </c>
-      <c r="E119" t="n">
-        <v>3</v>
-      </c>
-      <c r="F119" t="n">
+          <t>DC48</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>174015</v>
+        <v>1043</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DC10</t>
+          <t>DC9</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>DC59</t>
-        </is>
-      </c>
-      <c r="D120" s="2" t="n">
-        <v>44915</v>
-      </c>
-      <c r="E120" t="n">
-        <v>32</v>
-      </c>
-      <c r="F120" t="n">
+          <t>DC51</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>174469</v>
+        <v>1044</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DC32</t>
+          <t>DC9</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>DC10</t>
-        </is>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>44916</v>
-      </c>
-      <c r="E121" t="n">
-        <v>5</v>
-      </c>
-      <c r="F121" t="n">
+          <t>DC58</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>177825</v>
+        <v>1047</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DC69</t>
+          <t>DC9</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>DC3</t>
-        </is>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>44926</v>
-      </c>
-      <c r="E122" t="n">
-        <v>2</v>
-      </c>
-      <c r="F122" t="n">
+          <t>DC79</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
         <v>1</v>
       </c>
     </row>
